--- a/4. Efecto Hall/CompleteData/Datos_Temp_n.xlsx
+++ b/4. Efecto Hall/CompleteData/Datos_Temp_n.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Intermedio\InterHall\Intermedio\4. Efecto Hall\CompleteData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC45AA71-7D85-426B-9D67-8F7E0B56A896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,28 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+  <si>
+    <t>T [°C]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V_H </t>
+  </si>
+  <si>
+    <t>V_L</t>
+  </si>
+  <si>
+    <t>I=0</t>
+  </si>
+  <si>
+    <t>I=1.4</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +356,1044 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <v>-2</v>
+      </c>
+      <c r="C3">
+        <v>1.1160000000000001</v>
+      </c>
+      <c r="E3">
+        <v>41</v>
+      </c>
+      <c r="F3">
+        <v>-54.9</v>
+      </c>
+      <c r="G3">
+        <v>1.1819999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>43</v>
+      </c>
+      <c r="B4">
+        <v>-1.9</v>
+      </c>
+      <c r="C4">
+        <v>1.131</v>
+      </c>
+      <c r="E4">
+        <v>43</v>
+      </c>
+      <c r="F4">
+        <v>-54.8</v>
+      </c>
+      <c r="G4">
+        <v>1.1919999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>45</v>
+      </c>
+      <c r="B5">
+        <v>-1.9</v>
+      </c>
+      <c r="C5">
+        <v>1.137</v>
+      </c>
+      <c r="E5">
+        <v>45</v>
+      </c>
+      <c r="F5">
+        <v>-54.7</v>
+      </c>
+      <c r="G5">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>47</v>
+      </c>
+      <c r="B6">
+        <v>-1.9</v>
+      </c>
+      <c r="C6">
+        <v>1.1519999999999999</v>
+      </c>
+      <c r="E6">
+        <v>47</v>
+      </c>
+      <c r="F6">
+        <v>-54.6</v>
+      </c>
+      <c r="G6">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>49</v>
+      </c>
+      <c r="B7">
+        <v>-2</v>
+      </c>
+      <c r="C7">
+        <v>1.173</v>
+      </c>
+      <c r="E7">
+        <v>49</v>
+      </c>
+      <c r="F7">
+        <v>-54.5</v>
+      </c>
+      <c r="G7">
+        <v>1.2190000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>51</v>
+      </c>
+      <c r="B8">
+        <v>-2</v>
+      </c>
+      <c r="C8">
+        <v>1.1779999999999999</v>
+      </c>
+      <c r="E8">
+        <v>51</v>
+      </c>
+      <c r="F8">
+        <v>-54.4</v>
+      </c>
+      <c r="G8">
+        <v>1.2290000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>53</v>
+      </c>
+      <c r="B9">
+        <v>-2.1</v>
+      </c>
+      <c r="C9">
+        <v>1.2010000000000001</v>
+      </c>
+      <c r="E9">
+        <v>53</v>
+      </c>
+      <c r="F9">
+        <v>-54.3</v>
+      </c>
+      <c r="G9">
+        <v>1.236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>55</v>
+      </c>
+      <c r="B10">
+        <v>-2.1</v>
+      </c>
+      <c r="C10">
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="E10">
+        <v>55</v>
+      </c>
+      <c r="F10">
+        <v>-54.5</v>
+      </c>
+      <c r="G10">
+        <v>1.244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>57</v>
+      </c>
+      <c r="B11">
+        <v>-2.1</v>
+      </c>
+      <c r="C11">
+        <v>1.2130000000000001</v>
+      </c>
+      <c r="E11">
+        <v>57</v>
+      </c>
+      <c r="F11">
+        <v>-54.2</v>
+      </c>
+      <c r="G11">
+        <v>1.254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>59</v>
+      </c>
+      <c r="B12">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="C12">
+        <v>1.222</v>
+      </c>
+      <c r="E12">
+        <v>59</v>
+      </c>
+      <c r="F12">
+        <v>-54.1</v>
+      </c>
+      <c r="G12">
+        <v>1.2589999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>61</v>
+      </c>
+      <c r="B13">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="C13">
+        <v>1.2310000000000001</v>
+      </c>
+      <c r="E13">
+        <v>61</v>
+      </c>
+      <c r="F13">
+        <v>-53.8</v>
+      </c>
+      <c r="G13">
+        <v>1.2669999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>63</v>
+      </c>
+      <c r="B14">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="C14">
+        <v>1.238</v>
+      </c>
+      <c r="E14">
+        <v>63</v>
+      </c>
+      <c r="F14">
+        <v>-53.4</v>
+      </c>
+      <c r="G14">
+        <v>1.2729999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>65</v>
+      </c>
+      <c r="B15">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="C15">
+        <v>1.242</v>
+      </c>
+      <c r="E15">
+        <v>65</v>
+      </c>
+      <c r="F15">
+        <v>-53.1</v>
+      </c>
+      <c r="G15">
+        <v>1.2769999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>67</v>
+      </c>
+      <c r="B16">
+        <v>-2.4</v>
+      </c>
+      <c r="C16">
+        <v>1.25</v>
+      </c>
+      <c r="E16">
+        <v>67</v>
+      </c>
+      <c r="F16">
+        <v>-52.7</v>
+      </c>
+      <c r="G16">
+        <v>1.2809999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>69</v>
+      </c>
+      <c r="B17">
+        <v>-2.9</v>
+      </c>
+      <c r="C17">
+        <v>1.266</v>
+      </c>
+      <c r="E17">
+        <v>69</v>
+      </c>
+      <c r="F17">
+        <v>-52.2</v>
+      </c>
+      <c r="G17">
+        <v>1.2829999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>71</v>
+      </c>
+      <c r="B18">
+        <v>-2.9</v>
+      </c>
+      <c r="C18">
+        <v>1.2689999999999999</v>
+      </c>
+      <c r="E18">
+        <v>71</v>
+      </c>
+      <c r="F18">
+        <v>-51.2</v>
+      </c>
+      <c r="G18">
+        <v>1.284</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>73</v>
+      </c>
+      <c r="B19">
+        <v>-2.9</v>
+      </c>
+      <c r="C19">
+        <v>1.276</v>
+      </c>
+      <c r="E19">
+        <v>73</v>
+      </c>
+      <c r="F19">
+        <v>-50.7</v>
+      </c>
+      <c r="G19">
+        <v>1.2829999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>75</v>
+      </c>
+      <c r="B20">
+        <v>-2.6</v>
+      </c>
+      <c r="C20">
+        <v>1.28</v>
+      </c>
+      <c r="E20">
+        <v>75</v>
+      </c>
+      <c r="F20">
+        <v>-50.2</v>
+      </c>
+      <c r="G20">
+        <v>1.282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>77</v>
+      </c>
+      <c r="B21">
+        <v>-2.7</v>
+      </c>
+      <c r="C21">
+        <v>1.28</v>
+      </c>
+      <c r="E21">
+        <v>77</v>
+      </c>
+      <c r="F21">
+        <v>-49.3</v>
+      </c>
+      <c r="G21">
+        <v>1.2769999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>79</v>
+      </c>
+      <c r="B22">
+        <v>-2.8</v>
+      </c>
+      <c r="C22">
+        <v>1.276</v>
+      </c>
+      <c r="E22">
+        <v>79</v>
+      </c>
+      <c r="F22">
+        <v>-48.5</v>
+      </c>
+      <c r="G22">
+        <v>1.2709999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>81</v>
+      </c>
+      <c r="B23">
+        <v>-2.8</v>
+      </c>
+      <c r="C23">
+        <v>1.2709999999999999</v>
+      </c>
+      <c r="E23">
+        <v>81</v>
+      </c>
+      <c r="F23">
+        <v>-47.1</v>
+      </c>
+      <c r="G23">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>83</v>
+      </c>
+      <c r="B24">
+        <v>-2.8</v>
+      </c>
+      <c r="C24">
+        <v>1.2689999999999999</v>
+      </c>
+      <c r="E24">
+        <v>83</v>
+      </c>
+      <c r="F24">
+        <v>-45.5</v>
+      </c>
+      <c r="G24">
+        <v>1.2490000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>85</v>
+      </c>
+      <c r="B25">
+        <v>-2.8</v>
+      </c>
+      <c r="C25">
+        <v>1.2649999999999999</v>
+      </c>
+      <c r="E25">
+        <v>85</v>
+      </c>
+      <c r="F25">
+        <v>-44.4</v>
+      </c>
+      <c r="G25">
+        <v>1.236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>87</v>
+      </c>
+      <c r="B26">
+        <v>-2.8</v>
+      </c>
+      <c r="C26">
+        <v>1.2609999999999999</v>
+      </c>
+      <c r="E26">
+        <v>87</v>
+      </c>
+      <c r="F26">
+        <v>-43</v>
+      </c>
+      <c r="G26">
+        <v>1.218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>89</v>
+      </c>
+      <c r="B27">
+        <v>-2.7</v>
+      </c>
+      <c r="C27">
+        <v>1.258</v>
+      </c>
+      <c r="E27">
+        <v>89</v>
+      </c>
+      <c r="F27">
+        <v>-41.6</v>
+      </c>
+      <c r="G27">
+        <v>1.204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>91</v>
+      </c>
+      <c r="B28">
+        <v>-2.7</v>
+      </c>
+      <c r="C28">
+        <v>1.2509999999999999</v>
+      </c>
+      <c r="E28">
+        <v>91</v>
+      </c>
+      <c r="F28">
+        <v>-39.9</v>
+      </c>
+      <c r="G28">
+        <v>1.179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>93</v>
+      </c>
+      <c r="B29">
+        <v>-2.8</v>
+      </c>
+      <c r="C29">
+        <v>1.238</v>
+      </c>
+      <c r="E29">
+        <v>93</v>
+      </c>
+      <c r="F29">
+        <v>-38.299999999999997</v>
+      </c>
+      <c r="G29">
+        <v>1.1579999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>95</v>
+      </c>
+      <c r="B30">
+        <v>-2.8</v>
+      </c>
+      <c r="C30">
+        <v>1.228</v>
+      </c>
+      <c r="E30">
+        <v>95</v>
+      </c>
+      <c r="F30">
+        <v>-36.799999999999997</v>
+      </c>
+      <c r="G30">
+        <v>1.133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>97</v>
+      </c>
+      <c r="B31">
+        <v>-2.8</v>
+      </c>
+      <c r="C31">
+        <v>1.2170000000000001</v>
+      </c>
+      <c r="E31">
+        <v>97</v>
+      </c>
+      <c r="F31">
+        <v>-35.200000000000003</v>
+      </c>
+      <c r="G31">
+        <v>1.101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>99</v>
+      </c>
+      <c r="B32">
+        <v>-2.8</v>
+      </c>
+      <c r="C32">
+        <v>1.2050000000000001</v>
+      </c>
+      <c r="E32">
+        <v>99</v>
+      </c>
+      <c r="F32">
+        <v>-33.299999999999997</v>
+      </c>
+      <c r="G32">
+        <v>1.073</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>101</v>
+      </c>
+      <c r="B33">
+        <v>-2.9</v>
+      </c>
+      <c r="C33">
+        <v>1.165</v>
+      </c>
+      <c r="E33">
+        <v>101</v>
+      </c>
+      <c r="F33">
+        <v>-31.8</v>
+      </c>
+      <c r="G33">
+        <v>1.044</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>103</v>
+      </c>
+      <c r="B34">
+        <v>-2.9</v>
+      </c>
+      <c r="C34">
+        <v>1.157</v>
+      </c>
+      <c r="E34">
+        <v>103</v>
+      </c>
+      <c r="F34">
+        <v>-30.6</v>
+      </c>
+      <c r="G34">
+        <v>1.022</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>105</v>
+      </c>
+      <c r="B35">
+        <v>-2.9</v>
+      </c>
+      <c r="C35">
+        <v>1.1419999999999999</v>
+      </c>
+      <c r="E35">
+        <v>105</v>
+      </c>
+      <c r="F35">
+        <v>-29.1</v>
+      </c>
+      <c r="G35">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>107</v>
+      </c>
+      <c r="B36">
+        <v>-3</v>
+      </c>
+      <c r="C36">
+        <v>1.1339999999999999</v>
+      </c>
+      <c r="E36">
+        <v>107</v>
+      </c>
+      <c r="F36">
+        <v>-27.3</v>
+      </c>
+      <c r="G36">
+        <v>0.95599999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>109</v>
+      </c>
+      <c r="B37">
+        <v>-3</v>
+      </c>
+      <c r="C37">
+        <v>1.1180000000000001</v>
+      </c>
+      <c r="E37">
+        <v>109</v>
+      </c>
+      <c r="F37">
+        <v>-26.7</v>
+      </c>
+      <c r="G37">
+        <v>0.93600000000000005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>111</v>
+      </c>
+      <c r="B38">
+        <v>-3</v>
+      </c>
+      <c r="C38">
+        <v>1.085</v>
+      </c>
+      <c r="E38">
+        <v>111</v>
+      </c>
+      <c r="F38">
+        <v>-24.7</v>
+      </c>
+      <c r="G38">
+        <v>0.90400000000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>113</v>
+      </c>
+      <c r="B39">
+        <v>-3</v>
+      </c>
+      <c r="C39">
+        <v>1.06</v>
+      </c>
+      <c r="E39">
+        <v>113</v>
+      </c>
+      <c r="F39">
+        <v>-23.3</v>
+      </c>
+      <c r="G39">
+        <v>0.85699999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>115</v>
+      </c>
+      <c r="B40">
+        <v>-3</v>
+      </c>
+      <c r="C40">
+        <v>1.034</v>
+      </c>
+      <c r="E40">
+        <v>115</v>
+      </c>
+      <c r="F40">
+        <v>-22.1</v>
+      </c>
+      <c r="G40">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>117</v>
+      </c>
+      <c r="B41">
+        <v>-3</v>
+      </c>
+      <c r="C41">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="E41">
+        <v>117</v>
+      </c>
+      <c r="F41">
+        <v>-21.1</v>
+      </c>
+      <c r="G41">
+        <v>0.80300000000000005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>119</v>
+      </c>
+      <c r="B42">
+        <v>-3</v>
+      </c>
+      <c r="C42">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="E42">
+        <v>119</v>
+      </c>
+      <c r="F42">
+        <v>-19.8</v>
+      </c>
+      <c r="G42">
+        <v>0.76500000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>121</v>
+      </c>
+      <c r="B43">
+        <v>-3</v>
+      </c>
+      <c r="C43">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="E43">
+        <v>121</v>
+      </c>
+      <c r="F43">
+        <v>-18.7</v>
+      </c>
+      <c r="G43">
+        <v>0.73299999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>123</v>
+      </c>
+      <c r="B44">
+        <v>-3.1</v>
+      </c>
+      <c r="C44">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="E44">
+        <v>123</v>
+      </c>
+      <c r="F44">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="G44">
+        <v>0.70599999999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>125</v>
+      </c>
+      <c r="B45">
+        <v>-3.1</v>
+      </c>
+      <c r="C45">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="E45">
+        <v>125</v>
+      </c>
+      <c r="F45">
+        <v>-16.8</v>
+      </c>
+      <c r="G45">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>127</v>
+      </c>
+      <c r="B46">
+        <v>-3</v>
+      </c>
+      <c r="C46">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="E46">
+        <v>127</v>
+      </c>
+      <c r="F46">
+        <v>-15.8</v>
+      </c>
+      <c r="G46">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>129</v>
+      </c>
+      <c r="B47">
+        <v>-3</v>
+      </c>
+      <c r="C47">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="E47">
+        <v>129</v>
+      </c>
+      <c r="F47">
+        <v>-15.1</v>
+      </c>
+      <c r="G47">
+        <v>0.621</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>131</v>
+      </c>
+      <c r="B48">
+        <v>-3</v>
+      </c>
+      <c r="C48">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="E48">
+        <v>131</v>
+      </c>
+      <c r="F48">
+        <v>-14.3</v>
+      </c>
+      <c r="G48">
+        <v>0.502</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>133</v>
+      </c>
+      <c r="B49">
+        <v>-3</v>
+      </c>
+      <c r="C49">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="E49">
+        <v>133</v>
+      </c>
+      <c r="F49">
+        <v>-13.8</v>
+      </c>
+      <c r="G49">
+        <v>0.57599999999999996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>135</v>
+      </c>
+      <c r="B50">
+        <v>-3</v>
+      </c>
+      <c r="C50">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="E50">
+        <v>135</v>
+      </c>
+      <c r="F50">
+        <v>-13.1</v>
+      </c>
+      <c r="G50">
+        <v>0.55300000000000005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>137</v>
+      </c>
+      <c r="B51">
+        <v>-3</v>
+      </c>
+      <c r="C51">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="E51">
+        <v>137</v>
+      </c>
+      <c r="F51">
+        <v>-12.8</v>
+      </c>
+      <c r="G51">
+        <v>0.53400000000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>139</v>
+      </c>
+      <c r="B52">
+        <v>-3</v>
+      </c>
+      <c r="C52">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="E52">
+        <v>139</v>
+      </c>
+      <c r="F52">
+        <v>-12.5</v>
+      </c>
+      <c r="G52">
+        <v>0.51600000000000001</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/4. Efecto Hall/CompleteData/Datos_Temp_n.xlsx
+++ b/4. Efecto Hall/CompleteData/Datos_Temp_n.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Intermedio\InterHall\Intermedio\4. Efecto Hall\CompleteData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC45AA71-7D85-426B-9D67-8F7E0B56A896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D4B884-DB56-41DE-8D2C-372167CC980F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>T [°C]</t>
   </si>
@@ -34,12 +34,6 @@
   </si>
   <si>
     <t>V_L</t>
-  </si>
-  <si>
-    <t>I=0</t>
-  </si>
-  <si>
-    <t>I=1.4</t>
   </si>
 </sst>
 </file>
@@ -357,825 +351,837 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
+      <c r="A2">
+        <v>41</v>
+      </c>
+      <c r="B2">
+        <v>-2</v>
+      </c>
+      <c r="C2">
+        <v>1.1160000000000001</v>
+      </c>
+      <c r="E2">
+        <v>41</v>
+      </c>
+      <c r="F2">
+        <v>-54.9</v>
+      </c>
+      <c r="G2">
+        <v>1.1819999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B3">
-        <v>-2</v>
+        <v>-1.9</v>
       </c>
       <c r="C3">
-        <v>1.1160000000000001</v>
+        <v>1.131</v>
       </c>
       <c r="E3">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F3">
-        <v>-54.9</v>
+        <v>-54.8</v>
       </c>
       <c r="G3">
-        <v>1.1819999999999999</v>
+        <v>1.1919999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B4">
         <v>-1.9</v>
       </c>
       <c r="C4">
-        <v>1.131</v>
+        <v>1.137</v>
       </c>
       <c r="E4">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F4">
-        <v>-54.8</v>
+        <v>-54.7</v>
       </c>
       <c r="G4">
-        <v>1.1919999999999999</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B5">
         <v>-1.9</v>
       </c>
       <c r="C5">
-        <v>1.137</v>
+        <v>1.1519999999999999</v>
       </c>
       <c r="E5">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F5">
-        <v>-54.7</v>
+        <v>-54.6</v>
       </c>
       <c r="G5">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B6">
-        <v>-1.9</v>
+        <v>-2</v>
       </c>
       <c r="C6">
-        <v>1.1519999999999999</v>
+        <v>1.173</v>
       </c>
       <c r="E6">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F6">
-        <v>-54.6</v>
+        <v>-54.5</v>
       </c>
       <c r="G6">
-        <v>1.21</v>
+        <v>1.2190000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B7">
         <v>-2</v>
       </c>
       <c r="C7">
-        <v>1.173</v>
+        <v>1.1779999999999999</v>
       </c>
       <c r="E7">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F7">
-        <v>-54.5</v>
+        <v>-54.4</v>
       </c>
       <c r="G7">
-        <v>1.2190000000000001</v>
+        <v>1.2290000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B8">
-        <v>-2</v>
+        <v>-2.1</v>
       </c>
       <c r="C8">
-        <v>1.1779999999999999</v>
+        <v>1.2010000000000001</v>
       </c>
       <c r="E8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F8">
-        <v>-54.4</v>
+        <v>-54.3</v>
       </c>
       <c r="G8">
-        <v>1.2290000000000001</v>
+        <v>1.236</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B9">
         <v>-2.1</v>
       </c>
       <c r="C9">
-        <v>1.2010000000000001</v>
+        <v>1.2090000000000001</v>
       </c>
       <c r="E9">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F9">
-        <v>-54.3</v>
+        <v>-54.5</v>
       </c>
       <c r="G9">
-        <v>1.236</v>
+        <v>1.244</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B10">
         <v>-2.1</v>
       </c>
       <c r="C10">
-        <v>1.2090000000000001</v>
+        <v>1.2130000000000001</v>
       </c>
       <c r="E10">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F10">
-        <v>-54.5</v>
+        <v>-54.2</v>
       </c>
       <c r="G10">
-        <v>1.244</v>
+        <v>1.254</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B11">
-        <v>-2.1</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="C11">
-        <v>1.2130000000000001</v>
+        <v>1.222</v>
       </c>
       <c r="E11">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F11">
-        <v>-54.2</v>
+        <v>-54.1</v>
       </c>
       <c r="G11">
-        <v>1.254</v>
+        <v>1.2589999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B12">
         <v>-2.2000000000000002</v>
       </c>
       <c r="C12">
-        <v>1.222</v>
+        <v>1.2310000000000001</v>
       </c>
       <c r="E12">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F12">
-        <v>-54.1</v>
+        <v>-53.8</v>
       </c>
       <c r="G12">
-        <v>1.2589999999999999</v>
+        <v>1.2669999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B13">
-        <v>-2.2000000000000002</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="C13">
-        <v>1.2310000000000001</v>
+        <v>1.238</v>
       </c>
       <c r="E13">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F13">
-        <v>-53.8</v>
+        <v>-53.4</v>
       </c>
       <c r="G13">
-        <v>1.2669999999999999</v>
+        <v>1.2729999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B14">
         <v>-2.2999999999999998</v>
       </c>
       <c r="C14">
-        <v>1.238</v>
+        <v>1.242</v>
       </c>
       <c r="E14">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F14">
-        <v>-53.4</v>
+        <v>-53.1</v>
       </c>
       <c r="G14">
-        <v>1.2729999999999999</v>
+        <v>1.2769999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B15">
-        <v>-2.2999999999999998</v>
+        <v>-2.4</v>
       </c>
       <c r="C15">
-        <v>1.242</v>
+        <v>1.25</v>
       </c>
       <c r="E15">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F15">
-        <v>-53.1</v>
+        <v>-52.7</v>
       </c>
       <c r="G15">
-        <v>1.2769999999999999</v>
+        <v>1.2809999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B16">
-        <v>-2.4</v>
+        <v>-2.9</v>
       </c>
       <c r="C16">
-        <v>1.25</v>
+        <v>1.266</v>
       </c>
       <c r="E16">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F16">
-        <v>-52.7</v>
+        <v>-52.2</v>
       </c>
       <c r="G16">
-        <v>1.2809999999999999</v>
+        <v>1.2829999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B17">
         <v>-2.9</v>
       </c>
       <c r="C17">
-        <v>1.266</v>
+        <v>1.2689999999999999</v>
       </c>
       <c r="E17">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F17">
-        <v>-52.2</v>
+        <v>-51.2</v>
       </c>
       <c r="G17">
-        <v>1.2829999999999999</v>
+        <v>1.284</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B18">
         <v>-2.9</v>
       </c>
       <c r="C18">
-        <v>1.2689999999999999</v>
+        <v>1.276</v>
       </c>
       <c r="E18">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F18">
-        <v>-51.2</v>
+        <v>-50.7</v>
       </c>
       <c r="G18">
-        <v>1.284</v>
+        <v>1.2829999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B19">
-        <v>-2.9</v>
+        <v>-2.6</v>
       </c>
       <c r="C19">
-        <v>1.276</v>
+        <v>1.28</v>
       </c>
       <c r="E19">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F19">
-        <v>-50.7</v>
+        <v>-50.2</v>
       </c>
       <c r="G19">
-        <v>1.2829999999999999</v>
+        <v>1.282</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B20">
-        <v>-2.6</v>
+        <v>-2.7</v>
       </c>
       <c r="C20">
         <v>1.28</v>
       </c>
       <c r="E20">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F20">
-        <v>-50.2</v>
+        <v>-49.3</v>
       </c>
       <c r="G20">
-        <v>1.282</v>
+        <v>1.2769999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B21">
-        <v>-2.7</v>
+        <v>-2.8</v>
       </c>
       <c r="C21">
-        <v>1.28</v>
+        <v>1.276</v>
       </c>
       <c r="E21">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F21">
-        <v>-49.3</v>
+        <v>-48.5</v>
       </c>
       <c r="G21">
-        <v>1.2769999999999999</v>
+        <v>1.2709999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B22">
         <v>-2.8</v>
       </c>
       <c r="C22">
-        <v>1.276</v>
+        <v>1.2709999999999999</v>
       </c>
       <c r="E22">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F22">
-        <v>-48.5</v>
+        <v>-47.1</v>
       </c>
       <c r="G22">
-        <v>1.2709999999999999</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B23">
         <v>-2.8</v>
       </c>
       <c r="C23">
-        <v>1.2709999999999999</v>
+        <v>1.2689999999999999</v>
       </c>
       <c r="E23">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F23">
-        <v>-47.1</v>
+        <v>-45.5</v>
       </c>
       <c r="G23">
-        <v>1.26</v>
+        <v>1.2490000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B24">
         <v>-2.8</v>
       </c>
       <c r="C24">
-        <v>1.2689999999999999</v>
+        <v>1.2649999999999999</v>
       </c>
       <c r="E24">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F24">
-        <v>-45.5</v>
+        <v>-44.4</v>
       </c>
       <c r="G24">
-        <v>1.2490000000000001</v>
+        <v>1.236</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B25">
         <v>-2.8</v>
       </c>
       <c r="C25">
-        <v>1.2649999999999999</v>
+        <v>1.2609999999999999</v>
       </c>
       <c r="E25">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F25">
-        <v>-44.4</v>
+        <v>-43</v>
       </c>
       <c r="G25">
-        <v>1.236</v>
+        <v>1.218</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B26">
-        <v>-2.8</v>
+        <v>-2.7</v>
       </c>
       <c r="C26">
-        <v>1.2609999999999999</v>
+        <v>1.258</v>
       </c>
       <c r="E26">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F26">
-        <v>-43</v>
+        <v>-41.6</v>
       </c>
       <c r="G26">
-        <v>1.218</v>
+        <v>1.204</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B27">
         <v>-2.7</v>
       </c>
       <c r="C27">
-        <v>1.258</v>
+        <v>1.2509999999999999</v>
       </c>
       <c r="E27">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F27">
-        <v>-41.6</v>
+        <v>-39.9</v>
       </c>
       <c r="G27">
-        <v>1.204</v>
+        <v>1.179</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B28">
-        <v>-2.7</v>
+        <v>-2.8</v>
       </c>
       <c r="C28">
-        <v>1.2509999999999999</v>
+        <v>1.238</v>
       </c>
       <c r="E28">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F28">
-        <v>-39.9</v>
+        <v>-38.299999999999997</v>
       </c>
       <c r="G28">
-        <v>1.179</v>
+        <v>1.1579999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B29">
         <v>-2.8</v>
       </c>
       <c r="C29">
-        <v>1.238</v>
+        <v>1.228</v>
       </c>
       <c r="E29">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F29">
-        <v>-38.299999999999997</v>
+        <v>-36.799999999999997</v>
       </c>
       <c r="G29">
-        <v>1.1579999999999999</v>
+        <v>1.133</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B30">
         <v>-2.8</v>
       </c>
       <c r="C30">
-        <v>1.228</v>
+        <v>1.2170000000000001</v>
       </c>
       <c r="E30">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F30">
-        <v>-36.799999999999997</v>
+        <v>-35.200000000000003</v>
       </c>
       <c r="G30">
-        <v>1.133</v>
+        <v>1.101</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B31">
         <v>-2.8</v>
       </c>
       <c r="C31">
-        <v>1.2170000000000001</v>
+        <v>1.2050000000000001</v>
       </c>
       <c r="E31">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F31">
-        <v>-35.200000000000003</v>
+        <v>-33.299999999999997</v>
       </c>
       <c r="G31">
-        <v>1.101</v>
+        <v>1.073</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B32">
-        <v>-2.8</v>
+        <v>-2.9</v>
       </c>
       <c r="C32">
-        <v>1.2050000000000001</v>
+        <v>1.165</v>
       </c>
       <c r="E32">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F32">
-        <v>-33.299999999999997</v>
+        <v>-31.8</v>
       </c>
       <c r="G32">
-        <v>1.073</v>
+        <v>1.044</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B33">
         <v>-2.9</v>
       </c>
       <c r="C33">
-        <v>1.165</v>
+        <v>1.157</v>
       </c>
       <c r="E33">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F33">
-        <v>-31.8</v>
+        <v>-30.6</v>
       </c>
       <c r="G33">
-        <v>1.044</v>
+        <v>1.022</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B34">
         <v>-2.9</v>
       </c>
       <c r="C34">
-        <v>1.157</v>
+        <v>1.1419999999999999</v>
       </c>
       <c r="E34">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F34">
-        <v>-30.6</v>
+        <v>-29.1</v>
       </c>
       <c r="G34">
-        <v>1.022</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B35">
-        <v>-2.9</v>
+        <v>-3</v>
       </c>
       <c r="C35">
-        <v>1.1419999999999999</v>
+        <v>1.1339999999999999</v>
       </c>
       <c r="E35">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F35">
-        <v>-29.1</v>
+        <v>-27.3</v>
       </c>
       <c r="G35">
-        <v>0.99</v>
+        <v>0.95599999999999996</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B36">
         <v>-3</v>
       </c>
       <c r="C36">
-        <v>1.1339999999999999</v>
+        <v>1.1180000000000001</v>
       </c>
       <c r="E36">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F36">
-        <v>-27.3</v>
+        <v>-26.7</v>
       </c>
       <c r="G36">
-        <v>0.95599999999999996</v>
+        <v>0.93600000000000005</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B37">
         <v>-3</v>
       </c>
       <c r="C37">
-        <v>1.1180000000000001</v>
+        <v>1.085</v>
       </c>
       <c r="E37">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F37">
-        <v>-26.7</v>
+        <v>-24.7</v>
       </c>
       <c r="G37">
-        <v>0.93600000000000005</v>
+        <v>0.90400000000000003</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B38">
         <v>-3</v>
       </c>
       <c r="C38">
-        <v>1.085</v>
+        <v>1.06</v>
       </c>
       <c r="E38">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F38">
-        <v>-24.7</v>
+        <v>-23.3</v>
       </c>
       <c r="G38">
-        <v>0.90400000000000003</v>
+        <v>0.85699999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B39">
         <v>-3</v>
       </c>
       <c r="C39">
-        <v>1.06</v>
+        <v>1.034</v>
       </c>
       <c r="E39">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F39">
-        <v>-23.3</v>
+        <v>-22.1</v>
       </c>
       <c r="G39">
-        <v>0.85699999999999998</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B40">
         <v>-3</v>
       </c>
       <c r="C40">
-        <v>1.034</v>
+        <v>1.0249999999999999</v>
       </c>
       <c r="E40">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F40">
-        <v>-22.1</v>
+        <v>-21.1</v>
       </c>
       <c r="G40">
-        <v>0.83</v>
+        <v>0.80300000000000005</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B41">
         <v>-3</v>
       </c>
       <c r="C41">
-        <v>1.0249999999999999</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="E41">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F41">
-        <v>-21.1</v>
+        <v>-19.8</v>
       </c>
       <c r="G41">
-        <v>0.80300000000000005</v>
+        <v>0.76500000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B42">
         <v>-3</v>
@@ -1184,38 +1190,38 @@
         <v>0.97399999999999998</v>
       </c>
       <c r="E42">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F42">
-        <v>-19.8</v>
+        <v>-18.7</v>
       </c>
       <c r="G42">
-        <v>0.76500000000000001</v>
+        <v>0.73299999999999998</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B43">
-        <v>-3</v>
+        <v>-3.1</v>
       </c>
       <c r="C43">
-        <v>0.97399999999999998</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="E43">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F43">
-        <v>-18.7</v>
+        <v>-17.100000000000001</v>
       </c>
       <c r="G43">
-        <v>0.73299999999999998</v>
+        <v>0.70599999999999996</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B44">
         <v>-3.1</v>
@@ -1224,172 +1230,152 @@
         <v>0.95699999999999996</v>
       </c>
       <c r="E44">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F44">
-        <v>-17.100000000000001</v>
+        <v>-16.8</v>
       </c>
       <c r="G44">
-        <v>0.70599999999999996</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B45">
-        <v>-3.1</v>
+        <v>-3</v>
       </c>
       <c r="C45">
-        <v>0.95699999999999996</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="E45">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F45">
-        <v>-16.8</v>
+        <v>-15.8</v>
       </c>
       <c r="G45">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B46">
         <v>-3</v>
       </c>
       <c r="C46">
-        <v>0.92300000000000004</v>
+        <v>0.90600000000000003</v>
       </c>
       <c r="E46">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F46">
-        <v>-15.8</v>
+        <v>-15.1</v>
       </c>
       <c r="G46">
-        <v>0.65</v>
+        <v>0.621</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B47">
         <v>-3</v>
       </c>
       <c r="C47">
-        <v>0.90600000000000003</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="E47">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F47">
-        <v>-15.1</v>
+        <v>-14.3</v>
       </c>
       <c r="G47">
-        <v>0.621</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B48">
         <v>-3</v>
       </c>
       <c r="C48">
-        <v>0.85899999999999999</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="E48">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F48">
-        <v>-14.3</v>
+        <v>-13.8</v>
       </c>
       <c r="G48">
-        <v>0.502</v>
+        <v>0.57599999999999996</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B49">
         <v>-3</v>
       </c>
       <c r="C49">
-        <v>0.84399999999999997</v>
+        <v>0.82899999999999996</v>
       </c>
       <c r="E49">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F49">
-        <v>-13.8</v>
+        <v>-13.1</v>
       </c>
       <c r="G49">
-        <v>0.57599999999999996</v>
+        <v>0.55300000000000005</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B50">
         <v>-3</v>
       </c>
       <c r="C50">
-        <v>0.82899999999999996</v>
+        <v>0.80700000000000005</v>
       </c>
       <c r="E50">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F50">
-        <v>-13.1</v>
+        <v>-12.8</v>
       </c>
       <c r="G50">
-        <v>0.55300000000000005</v>
+        <v>0.53400000000000003</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B51">
         <v>-3</v>
       </c>
       <c r="C51">
-        <v>0.80700000000000005</v>
+        <v>0.78600000000000003</v>
       </c>
       <c r="E51">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F51">
-        <v>-12.8</v>
+        <v>-12.5</v>
       </c>
       <c r="G51">
-        <v>0.53400000000000003</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>139</v>
-      </c>
-      <c r="B52">
-        <v>-3</v>
-      </c>
-      <c r="C52">
-        <v>0.78600000000000003</v>
-      </c>
-      <c r="E52">
-        <v>139</v>
-      </c>
-      <c r="F52">
-        <v>-12.5</v>
-      </c>
-      <c r="G52">
         <v>0.51600000000000001</v>
       </c>
     </row>

--- a/4. Efecto Hall/CompleteData/Datos_Temp_n.xlsx
+++ b/4. Efecto Hall/CompleteData/Datos_Temp_n.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Intermedio\InterHall\Intermedio\4. Efecto Hall\CompleteData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Intermedio\Hall\Intermedio\4. Efecto Hall\CompleteData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D4B884-DB56-41DE-8D2C-372167CC980F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EAC9A1-40D7-4441-8ED4-821F2EE10C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,15 +25,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>T [°C]</t>
   </si>
   <si>
-    <t xml:space="preserve">V_H </t>
+    <t>I=0A</t>
   </si>
   <si>
-    <t>V_L</t>
+    <t>I=1.4A</t>
+  </si>
+  <si>
+    <t>V_H [mV]</t>
+  </si>
+  <si>
+    <t>V_L [V]</t>
+  </si>
+  <si>
+    <t>V_L[V]</t>
+  </si>
+  <si>
+    <t>VH err</t>
+  </si>
+  <si>
+    <t>VL err</t>
   </si>
 </sst>
 </file>
@@ -351,837 +366,1305 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
         <v>1</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>41</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>-2</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>1.1160000000000001</v>
       </c>
-      <c r="E2">
+      <c r="D3">
+        <v>0.1</v>
+      </c>
+      <c r="E3">
+        <v>1E-3</v>
+      </c>
+      <c r="G3">
         <v>41</v>
       </c>
-      <c r="F2">
+      <c r="H3">
         <v>-54.9</v>
       </c>
-      <c r="G2">
+      <c r="I3">
         <v>1.1819999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="J3">
+        <v>0.1</v>
+      </c>
+      <c r="K3">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>43</v>
-      </c>
-      <c r="B3">
-        <v>-1.9</v>
-      </c>
-      <c r="C3">
-        <v>1.131</v>
-      </c>
-      <c r="E3">
-        <v>43</v>
-      </c>
-      <c r="F3">
-        <v>-54.8</v>
-      </c>
-      <c r="G3">
-        <v>1.1919999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>45</v>
       </c>
       <c r="B4">
         <v>-1.9</v>
       </c>
       <c r="C4">
-        <v>1.137</v>
+        <v>1.131</v>
+      </c>
+      <c r="D4">
+        <v>0.1</v>
       </c>
       <c r="E4">
+        <v>1E-3</v>
+      </c>
+      <c r="G4">
+        <v>43</v>
+      </c>
+      <c r="H4">
+        <v>-54.8</v>
+      </c>
+      <c r="I4">
+        <v>1.1919999999999999</v>
+      </c>
+      <c r="J4">
+        <v>0.1</v>
+      </c>
+      <c r="K4">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>45</v>
-      </c>
-      <c r="F4">
-        <v>-54.7</v>
-      </c>
-      <c r="G4">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>47</v>
       </c>
       <c r="B5">
         <v>-1.9</v>
       </c>
       <c r="C5">
+        <v>1.137</v>
+      </c>
+      <c r="D5">
+        <v>0.1</v>
+      </c>
+      <c r="E5">
+        <v>1E-3</v>
+      </c>
+      <c r="G5">
+        <v>45</v>
+      </c>
+      <c r="H5">
+        <v>-54.7</v>
+      </c>
+      <c r="I5">
+        <v>1.2</v>
+      </c>
+      <c r="J5">
+        <v>0.1</v>
+      </c>
+      <c r="K5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>47</v>
+      </c>
+      <c r="B6">
+        <v>-1.9</v>
+      </c>
+      <c r="C6">
         <v>1.1519999999999999</v>
       </c>
-      <c r="E5">
+      <c r="D6">
+        <v>0.1</v>
+      </c>
+      <c r="E6">
+        <v>1E-3</v>
+      </c>
+      <c r="G6">
         <v>47</v>
       </c>
-      <c r="F5">
+      <c r="H6">
         <v>-54.6</v>
       </c>
-      <c r="G5">
+      <c r="I6">
         <v>1.21</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="J6">
+        <v>0.1</v>
+      </c>
+      <c r="K6">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>49</v>
-      </c>
-      <c r="B6">
-        <v>-2</v>
-      </c>
-      <c r="C6">
-        <v>1.173</v>
-      </c>
-      <c r="E6">
-        <v>49</v>
-      </c>
-      <c r="F6">
-        <v>-54.5</v>
-      </c>
-      <c r="G6">
-        <v>1.2190000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>51</v>
       </c>
       <c r="B7">
         <v>-2</v>
       </c>
       <c r="C7">
+        <v>1.173</v>
+      </c>
+      <c r="D7">
+        <v>0.1</v>
+      </c>
+      <c r="E7">
+        <v>1E-3</v>
+      </c>
+      <c r="G7">
+        <v>49</v>
+      </c>
+      <c r="H7">
+        <v>-54.5</v>
+      </c>
+      <c r="I7">
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="J7">
+        <v>0.1</v>
+      </c>
+      <c r="K7">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>51</v>
+      </c>
+      <c r="B8">
+        <v>-2</v>
+      </c>
+      <c r="C8">
         <v>1.1779999999999999</v>
       </c>
-      <c r="E7">
+      <c r="D8">
+        <v>0.1</v>
+      </c>
+      <c r="E8">
+        <v>1E-3</v>
+      </c>
+      <c r="G8">
         <v>51</v>
       </c>
-      <c r="F7">
+      <c r="H8">
         <v>-54.4</v>
       </c>
-      <c r="G7">
+      <c r="I8">
         <v>1.2290000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="J8">
+        <v>0.1</v>
+      </c>
+      <c r="K8">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>53</v>
-      </c>
-      <c r="B8">
-        <v>-2.1</v>
-      </c>
-      <c r="C8">
-        <v>1.2010000000000001</v>
-      </c>
-      <c r="E8">
-        <v>53</v>
-      </c>
-      <c r="F8">
-        <v>-54.3</v>
-      </c>
-      <c r="G8">
-        <v>1.236</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>55</v>
       </c>
       <c r="B9">
         <v>-2.1</v>
       </c>
       <c r="C9">
-        <v>1.2090000000000001</v>
+        <v>1.2010000000000001</v>
+      </c>
+      <c r="D9">
+        <v>0.1</v>
       </c>
       <c r="E9">
+        <v>1E-3</v>
+      </c>
+      <c r="G9">
+        <v>53</v>
+      </c>
+      <c r="H9">
+        <v>-54.3</v>
+      </c>
+      <c r="I9">
+        <v>1.236</v>
+      </c>
+      <c r="J9">
+        <v>0.1</v>
+      </c>
+      <c r="K9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>55</v>
-      </c>
-      <c r="F9">
-        <v>-54.5</v>
-      </c>
-      <c r="G9">
-        <v>1.244</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>57</v>
       </c>
       <c r="B10">
         <v>-2.1</v>
       </c>
       <c r="C10">
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="D10">
+        <v>0.1</v>
+      </c>
+      <c r="E10">
+        <v>1E-3</v>
+      </c>
+      <c r="G10">
+        <v>55</v>
+      </c>
+      <c r="H10">
+        <v>-54.5</v>
+      </c>
+      <c r="I10">
+        <v>1.244</v>
+      </c>
+      <c r="J10">
+        <v>0.1</v>
+      </c>
+      <c r="K10">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>57</v>
+      </c>
+      <c r="B11">
+        <v>-2.1</v>
+      </c>
+      <c r="C11">
         <v>1.2130000000000001</v>
       </c>
-      <c r="E10">
+      <c r="D11">
+        <v>0.1</v>
+      </c>
+      <c r="E11">
+        <v>1E-3</v>
+      </c>
+      <c r="G11">
         <v>57</v>
       </c>
-      <c r="F10">
+      <c r="H11">
         <v>-54.2</v>
       </c>
-      <c r="G10">
+      <c r="I11">
         <v>1.254</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="J11">
+        <v>0.1</v>
+      </c>
+      <c r="K11">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>59</v>
-      </c>
-      <c r="B11">
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="C11">
-        <v>1.222</v>
-      </c>
-      <c r="E11">
-        <v>59</v>
-      </c>
-      <c r="F11">
-        <v>-54.1</v>
-      </c>
-      <c r="G11">
-        <v>1.2589999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>61</v>
       </c>
       <c r="B12">
         <v>-2.2000000000000002</v>
       </c>
       <c r="C12">
+        <v>1.222</v>
+      </c>
+      <c r="D12">
+        <v>0.1</v>
+      </c>
+      <c r="E12">
+        <v>1E-3</v>
+      </c>
+      <c r="G12">
+        <v>59</v>
+      </c>
+      <c r="H12">
+        <v>-54.1</v>
+      </c>
+      <c r="I12">
+        <v>1.2589999999999999</v>
+      </c>
+      <c r="J12">
+        <v>0.1</v>
+      </c>
+      <c r="K12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>61</v>
+      </c>
+      <c r="B13">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="C13">
         <v>1.2310000000000001</v>
       </c>
-      <c r="E12">
+      <c r="D13">
+        <v>0.1</v>
+      </c>
+      <c r="E13">
+        <v>1E-3</v>
+      </c>
+      <c r="G13">
         <v>61</v>
       </c>
-      <c r="F12">
+      <c r="H13">
         <v>-53.8</v>
       </c>
-      <c r="G12">
+      <c r="I13">
         <v>1.2669999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="J13">
+        <v>0.1</v>
+      </c>
+      <c r="K13">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>63</v>
-      </c>
-      <c r="B13">
-        <v>-2.2999999999999998</v>
-      </c>
-      <c r="C13">
-        <v>1.238</v>
-      </c>
-      <c r="E13">
-        <v>63</v>
-      </c>
-      <c r="F13">
-        <v>-53.4</v>
-      </c>
-      <c r="G13">
-        <v>1.2729999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>65</v>
       </c>
       <c r="B14">
         <v>-2.2999999999999998</v>
       </c>
       <c r="C14">
+        <v>1.238</v>
+      </c>
+      <c r="D14">
+        <v>0.1</v>
+      </c>
+      <c r="E14">
+        <v>1E-3</v>
+      </c>
+      <c r="G14">
+        <v>63</v>
+      </c>
+      <c r="H14">
+        <v>-53.4</v>
+      </c>
+      <c r="I14">
+        <v>1.2729999999999999</v>
+      </c>
+      <c r="J14">
+        <v>0.1</v>
+      </c>
+      <c r="K14">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>65</v>
+      </c>
+      <c r="B15">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="C15">
         <v>1.242</v>
       </c>
-      <c r="E14">
+      <c r="D15">
+        <v>0.1</v>
+      </c>
+      <c r="E15">
+        <v>1E-3</v>
+      </c>
+      <c r="G15">
         <v>65</v>
       </c>
-      <c r="F14">
+      <c r="H15">
         <v>-53.1</v>
       </c>
-      <c r="G14">
+      <c r="I15">
         <v>1.2769999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="J15">
+        <v>0.1</v>
+      </c>
+      <c r="K15">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>67</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>-2.4</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>1.25</v>
       </c>
-      <c r="E15">
+      <c r="D16">
+        <v>0.1</v>
+      </c>
+      <c r="E16">
+        <v>1E-3</v>
+      </c>
+      <c r="G16">
         <v>67</v>
       </c>
-      <c r="F15">
+      <c r="H16">
         <v>-52.7</v>
       </c>
-      <c r="G15">
+      <c r="I16">
         <v>1.2809999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="J16">
+        <v>0.1</v>
+      </c>
+      <c r="K16">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>69</v>
-      </c>
-      <c r="B16">
-        <v>-2.9</v>
-      </c>
-      <c r="C16">
-        <v>1.266</v>
-      </c>
-      <c r="E16">
-        <v>69</v>
-      </c>
-      <c r="F16">
-        <v>-52.2</v>
-      </c>
-      <c r="G16">
-        <v>1.2829999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>71</v>
       </c>
       <c r="B17">
         <v>-2.9</v>
       </c>
       <c r="C17">
-        <v>1.2689999999999999</v>
+        <v>1.266</v>
+      </c>
+      <c r="D17">
+        <v>0.1</v>
       </c>
       <c r="E17">
+        <v>1E-3</v>
+      </c>
+      <c r="G17">
+        <v>69</v>
+      </c>
+      <c r="H17">
+        <v>-52.2</v>
+      </c>
+      <c r="I17">
+        <v>1.2829999999999999</v>
+      </c>
+      <c r="J17">
+        <v>0.1</v>
+      </c>
+      <c r="K17">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>71</v>
-      </c>
-      <c r="F17">
-        <v>-51.2</v>
-      </c>
-      <c r="G17">
-        <v>1.284</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>73</v>
       </c>
       <c r="B18">
         <v>-2.9</v>
       </c>
       <c r="C18">
+        <v>1.2689999999999999</v>
+      </c>
+      <c r="D18">
+        <v>0.1</v>
+      </c>
+      <c r="E18">
+        <v>1E-3</v>
+      </c>
+      <c r="G18">
+        <v>71</v>
+      </c>
+      <c r="H18">
+        <v>-51.2</v>
+      </c>
+      <c r="I18">
+        <v>1.284</v>
+      </c>
+      <c r="J18">
+        <v>0.1</v>
+      </c>
+      <c r="K18">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>73</v>
+      </c>
+      <c r="B19">
+        <v>-2.9</v>
+      </c>
+      <c r="C19">
         <v>1.276</v>
       </c>
-      <c r="E18">
+      <c r="D19">
+        <v>0.1</v>
+      </c>
+      <c r="E19">
+        <v>1E-3</v>
+      </c>
+      <c r="G19">
         <v>73</v>
       </c>
-      <c r="F18">
+      <c r="H19">
         <v>-50.7</v>
       </c>
-      <c r="G18">
+      <c r="I19">
         <v>1.2829999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="J19">
+        <v>0.1</v>
+      </c>
+      <c r="K19">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>75</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>-2.6</v>
-      </c>
-      <c r="C19">
-        <v>1.28</v>
-      </c>
-      <c r="E19">
-        <v>75</v>
-      </c>
-      <c r="F19">
-        <v>-50.2</v>
-      </c>
-      <c r="G19">
-        <v>1.282</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>77</v>
-      </c>
-      <c r="B20">
-        <v>-2.7</v>
       </c>
       <c r="C20">
         <v>1.28</v>
       </c>
+      <c r="D20">
+        <v>0.1</v>
+      </c>
       <c r="E20">
+        <v>1E-3</v>
+      </c>
+      <c r="G20">
+        <v>75</v>
+      </c>
+      <c r="H20">
+        <v>-50.2</v>
+      </c>
+      <c r="I20">
+        <v>1.282</v>
+      </c>
+      <c r="J20">
+        <v>0.1</v>
+      </c>
+      <c r="K20">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>77</v>
       </c>
-      <c r="F20">
+      <c r="B21">
+        <v>-2.7</v>
+      </c>
+      <c r="C21">
+        <v>1.28</v>
+      </c>
+      <c r="D21">
+        <v>0.1</v>
+      </c>
+      <c r="E21">
+        <v>1E-3</v>
+      </c>
+      <c r="G21">
+        <v>77</v>
+      </c>
+      <c r="H21">
         <v>-49.3</v>
       </c>
-      <c r="G20">
+      <c r="I21">
         <v>1.2769999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="J21">
+        <v>0.1</v>
+      </c>
+      <c r="K21">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>79</v>
-      </c>
-      <c r="B21">
-        <v>-2.8</v>
-      </c>
-      <c r="C21">
-        <v>1.276</v>
-      </c>
-      <c r="E21">
-        <v>79</v>
-      </c>
-      <c r="F21">
-        <v>-48.5</v>
-      </c>
-      <c r="G21">
-        <v>1.2709999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>81</v>
       </c>
       <c r="B22">
         <v>-2.8</v>
       </c>
       <c r="C22">
+        <v>1.276</v>
+      </c>
+      <c r="D22">
+        <v>0.1</v>
+      </c>
+      <c r="E22">
+        <v>1E-3</v>
+      </c>
+      <c r="G22">
+        <v>79</v>
+      </c>
+      <c r="H22">
+        <v>-48.5</v>
+      </c>
+      <c r="I22">
         <v>1.2709999999999999</v>
       </c>
-      <c r="E22">
+      <c r="J22">
+        <v>0.1</v>
+      </c>
+      <c r="K22">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>81</v>
-      </c>
-      <c r="F22">
-        <v>-47.1</v>
-      </c>
-      <c r="G22">
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>83</v>
       </c>
       <c r="B23">
         <v>-2.8</v>
       </c>
       <c r="C23">
-        <v>1.2689999999999999</v>
+        <v>1.2709999999999999</v>
+      </c>
+      <c r="D23">
+        <v>0.1</v>
       </c>
       <c r="E23">
+        <v>1E-3</v>
+      </c>
+      <c r="G23">
+        <v>81</v>
+      </c>
+      <c r="H23">
+        <v>-47.1</v>
+      </c>
+      <c r="I23">
+        <v>1.26</v>
+      </c>
+      <c r="J23">
+        <v>0.1</v>
+      </c>
+      <c r="K23">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>83</v>
-      </c>
-      <c r="F23">
-        <v>-45.5</v>
-      </c>
-      <c r="G23">
-        <v>1.2490000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>85</v>
       </c>
       <c r="B24">
         <v>-2.8</v>
       </c>
       <c r="C24">
-        <v>1.2649999999999999</v>
+        <v>1.2689999999999999</v>
+      </c>
+      <c r="D24">
+        <v>0.1</v>
       </c>
       <c r="E24">
+        <v>1E-3</v>
+      </c>
+      <c r="G24">
+        <v>83</v>
+      </c>
+      <c r="H24">
+        <v>-45.5</v>
+      </c>
+      <c r="I24">
+        <v>1.2490000000000001</v>
+      </c>
+      <c r="J24">
+        <v>0.1</v>
+      </c>
+      <c r="K24">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>85</v>
-      </c>
-      <c r="F24">
-        <v>-44.4</v>
-      </c>
-      <c r="G24">
-        <v>1.236</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>87</v>
       </c>
       <c r="B25">
         <v>-2.8</v>
       </c>
       <c r="C25">
+        <v>1.2649999999999999</v>
+      </c>
+      <c r="D25">
+        <v>0.1</v>
+      </c>
+      <c r="E25">
+        <v>1E-3</v>
+      </c>
+      <c r="G25">
+        <v>85</v>
+      </c>
+      <c r="H25">
+        <v>-44.4</v>
+      </c>
+      <c r="I25">
+        <v>1.236</v>
+      </c>
+      <c r="J25">
+        <v>0.1</v>
+      </c>
+      <c r="K25">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>87</v>
+      </c>
+      <c r="B26">
+        <v>-2.8</v>
+      </c>
+      <c r="C26">
         <v>1.2609999999999999</v>
       </c>
-      <c r="E25">
+      <c r="D26">
+        <v>0.1</v>
+      </c>
+      <c r="E26">
+        <v>1E-3</v>
+      </c>
+      <c r="G26">
         <v>87</v>
       </c>
-      <c r="F25">
+      <c r="H26">
         <v>-43</v>
       </c>
-      <c r="G25">
+      <c r="I26">
         <v>1.218</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="J26">
+        <v>0.1</v>
+      </c>
+      <c r="K26">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>89</v>
-      </c>
-      <c r="B26">
-        <v>-2.7</v>
-      </c>
-      <c r="C26">
-        <v>1.258</v>
-      </c>
-      <c r="E26">
-        <v>89</v>
-      </c>
-      <c r="F26">
-        <v>-41.6</v>
-      </c>
-      <c r="G26">
-        <v>1.204</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>91</v>
       </c>
       <c r="B27">
         <v>-2.7</v>
       </c>
       <c r="C27">
+        <v>1.258</v>
+      </c>
+      <c r="D27">
+        <v>0.1</v>
+      </c>
+      <c r="E27">
+        <v>1E-3</v>
+      </c>
+      <c r="G27">
+        <v>89</v>
+      </c>
+      <c r="H27">
+        <v>-41.6</v>
+      </c>
+      <c r="I27">
+        <v>1.204</v>
+      </c>
+      <c r="J27">
+        <v>0.1</v>
+      </c>
+      <c r="K27">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>91</v>
+      </c>
+      <c r="B28">
+        <v>-2.7</v>
+      </c>
+      <c r="C28">
         <v>1.2509999999999999</v>
       </c>
-      <c r="E27">
+      <c r="D28">
+        <v>0.1</v>
+      </c>
+      <c r="E28">
+        <v>1E-3</v>
+      </c>
+      <c r="G28">
         <v>91</v>
       </c>
-      <c r="F27">
+      <c r="H28">
         <v>-39.9</v>
       </c>
-      <c r="G27">
+      <c r="I28">
         <v>1.179</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="J28">
+        <v>0.1</v>
+      </c>
+      <c r="K28">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>93</v>
-      </c>
-      <c r="B28">
-        <v>-2.8</v>
-      </c>
-      <c r="C28">
-        <v>1.238</v>
-      </c>
-      <c r="E28">
-        <v>93</v>
-      </c>
-      <c r="F28">
-        <v>-38.299999999999997</v>
-      </c>
-      <c r="G28">
-        <v>1.1579999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>95</v>
       </c>
       <c r="B29">
         <v>-2.8</v>
       </c>
       <c r="C29">
-        <v>1.228</v>
+        <v>1.238</v>
+      </c>
+      <c r="D29">
+        <v>0.1</v>
       </c>
       <c r="E29">
+        <v>1E-3</v>
+      </c>
+      <c r="G29">
+        <v>93</v>
+      </c>
+      <c r="H29">
+        <v>-38.299999999999997</v>
+      </c>
+      <c r="I29">
+        <v>1.1579999999999999</v>
+      </c>
+      <c r="J29">
+        <v>0.1</v>
+      </c>
+      <c r="K29">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>95</v>
-      </c>
-      <c r="F29">
-        <v>-36.799999999999997</v>
-      </c>
-      <c r="G29">
-        <v>1.133</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>97</v>
       </c>
       <c r="B30">
         <v>-2.8</v>
       </c>
       <c r="C30">
-        <v>1.2170000000000001</v>
+        <v>1.228</v>
+      </c>
+      <c r="D30">
+        <v>0.1</v>
       </c>
       <c r="E30">
+        <v>1E-3</v>
+      </c>
+      <c r="G30">
+        <v>95</v>
+      </c>
+      <c r="H30">
+        <v>-36.799999999999997</v>
+      </c>
+      <c r="I30">
+        <v>1.133</v>
+      </c>
+      <c r="J30">
+        <v>0.1</v>
+      </c>
+      <c r="K30">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>97</v>
-      </c>
-      <c r="F30">
-        <v>-35.200000000000003</v>
-      </c>
-      <c r="G30">
-        <v>1.101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>99</v>
       </c>
       <c r="B31">
         <v>-2.8</v>
       </c>
       <c r="C31">
+        <v>1.2170000000000001</v>
+      </c>
+      <c r="D31">
+        <v>0.1</v>
+      </c>
+      <c r="E31">
+        <v>1E-3</v>
+      </c>
+      <c r="G31">
+        <v>97</v>
+      </c>
+      <c r="H31">
+        <v>-35.200000000000003</v>
+      </c>
+      <c r="I31">
+        <v>1.101</v>
+      </c>
+      <c r="J31">
+        <v>0.1</v>
+      </c>
+      <c r="K31">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>99</v>
+      </c>
+      <c r="B32">
+        <v>-2.8</v>
+      </c>
+      <c r="C32">
         <v>1.2050000000000001</v>
       </c>
-      <c r="E31">
+      <c r="D32">
+        <v>0.1</v>
+      </c>
+      <c r="E32">
+        <v>1E-3</v>
+      </c>
+      <c r="G32">
         <v>99</v>
       </c>
-      <c r="F31">
+      <c r="H32">
         <v>-33.299999999999997</v>
       </c>
-      <c r="G31">
+      <c r="I32">
         <v>1.073</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="J32">
+        <v>0.1</v>
+      </c>
+      <c r="K32">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>101</v>
-      </c>
-      <c r="B32">
-        <v>-2.9</v>
-      </c>
-      <c r="C32">
-        <v>1.165</v>
-      </c>
-      <c r="E32">
-        <v>101</v>
-      </c>
-      <c r="F32">
-        <v>-31.8</v>
-      </c>
-      <c r="G32">
-        <v>1.044</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>103</v>
       </c>
       <c r="B33">
         <v>-2.9</v>
       </c>
       <c r="C33">
-        <v>1.157</v>
+        <v>1.165</v>
+      </c>
+      <c r="D33">
+        <v>0.1</v>
       </c>
       <c r="E33">
+        <v>1E-3</v>
+      </c>
+      <c r="G33">
+        <v>101</v>
+      </c>
+      <c r="H33">
+        <v>-31.8</v>
+      </c>
+      <c r="I33">
+        <v>1.044</v>
+      </c>
+      <c r="J33">
+        <v>0.1</v>
+      </c>
+      <c r="K33">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>103</v>
-      </c>
-      <c r="F33">
-        <v>-30.6</v>
-      </c>
-      <c r="G33">
-        <v>1.022</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>105</v>
       </c>
       <c r="B34">
         <v>-2.9</v>
       </c>
       <c r="C34">
+        <v>1.157</v>
+      </c>
+      <c r="D34">
+        <v>0.1</v>
+      </c>
+      <c r="E34">
+        <v>1E-3</v>
+      </c>
+      <c r="G34">
+        <v>103</v>
+      </c>
+      <c r="H34">
+        <v>-30.6</v>
+      </c>
+      <c r="I34">
+        <v>1.022</v>
+      </c>
+      <c r="J34">
+        <v>0.1</v>
+      </c>
+      <c r="K34">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>105</v>
+      </c>
+      <c r="B35">
+        <v>-2.9</v>
+      </c>
+      <c r="C35">
         <v>1.1419999999999999</v>
       </c>
-      <c r="E34">
+      <c r="D35">
+        <v>0.1</v>
+      </c>
+      <c r="E35">
+        <v>1E-3</v>
+      </c>
+      <c r="G35">
         <v>105</v>
       </c>
-      <c r="F34">
+      <c r="H35">
         <v>-29.1</v>
       </c>
-      <c r="G34">
+      <c r="I35">
         <v>0.99</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="J35">
+        <v>0.1</v>
+      </c>
+      <c r="K35">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>107</v>
-      </c>
-      <c r="B35">
-        <v>-3</v>
-      </c>
-      <c r="C35">
-        <v>1.1339999999999999</v>
-      </c>
-      <c r="E35">
-        <v>107</v>
-      </c>
-      <c r="F35">
-        <v>-27.3</v>
-      </c>
-      <c r="G35">
-        <v>0.95599999999999996</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>109</v>
       </c>
       <c r="B36">
         <v>-3</v>
       </c>
       <c r="C36">
-        <v>1.1180000000000001</v>
+        <v>1.1339999999999999</v>
+      </c>
+      <c r="D36">
+        <v>0.1</v>
       </c>
       <c r="E36">
+        <v>1E-3</v>
+      </c>
+      <c r="G36">
+        <v>107</v>
+      </c>
+      <c r="H36">
+        <v>-27.3</v>
+      </c>
+      <c r="I36">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="J36">
+        <v>0.1</v>
+      </c>
+      <c r="K36">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>109</v>
-      </c>
-      <c r="F36">
-        <v>-26.7</v>
-      </c>
-      <c r="G36">
-        <v>0.93600000000000005</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>111</v>
       </c>
       <c r="B37">
         <v>-3</v>
       </c>
       <c r="C37">
-        <v>1.085</v>
+        <v>1.1180000000000001</v>
+      </c>
+      <c r="D37">
+        <v>0.1</v>
       </c>
       <c r="E37">
+        <v>1E-3</v>
+      </c>
+      <c r="G37">
+        <v>109</v>
+      </c>
+      <c r="H37">
+        <v>-26.7</v>
+      </c>
+      <c r="I37">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="J37">
+        <v>0.1</v>
+      </c>
+      <c r="K37">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>111</v>
-      </c>
-      <c r="F37">
-        <v>-24.7</v>
-      </c>
-      <c r="G37">
-        <v>0.90400000000000003</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>113</v>
       </c>
       <c r="B38">
         <v>-3</v>
       </c>
       <c r="C38">
-        <v>1.06</v>
+        <v>1.085</v>
+      </c>
+      <c r="D38">
+        <v>0.1</v>
       </c>
       <c r="E38">
+        <v>1E-3</v>
+      </c>
+      <c r="G38">
+        <v>111</v>
+      </c>
+      <c r="H38">
+        <v>-24.7</v>
+      </c>
+      <c r="I38">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="J38">
+        <v>0.1</v>
+      </c>
+      <c r="K38">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>113</v>
-      </c>
-      <c r="F38">
-        <v>-23.3</v>
-      </c>
-      <c r="G38">
-        <v>0.85699999999999998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>115</v>
       </c>
       <c r="B39">
         <v>-3</v>
       </c>
       <c r="C39">
-        <v>1.034</v>
+        <v>1.06</v>
+      </c>
+      <c r="D39">
+        <v>0.1</v>
       </c>
       <c r="E39">
+        <v>1E-3</v>
+      </c>
+      <c r="G39">
+        <v>113</v>
+      </c>
+      <c r="H39">
+        <v>-23.3</v>
+      </c>
+      <c r="I39">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="J39">
+        <v>0.1</v>
+      </c>
+      <c r="K39">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>115</v>
-      </c>
-      <c r="F39">
-        <v>-22.1</v>
-      </c>
-      <c r="G39">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>117</v>
       </c>
       <c r="B40">
         <v>-3</v>
       </c>
       <c r="C40">
-        <v>1.0249999999999999</v>
+        <v>1.034</v>
+      </c>
+      <c r="D40">
+        <v>0.1</v>
       </c>
       <c r="E40">
+        <v>1E-3</v>
+      </c>
+      <c r="G40">
+        <v>115</v>
+      </c>
+      <c r="H40">
+        <v>-22.1</v>
+      </c>
+      <c r="I40">
+        <v>0.83</v>
+      </c>
+      <c r="J40">
+        <v>0.1</v>
+      </c>
+      <c r="K40">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>117</v>
-      </c>
-      <c r="F40">
-        <v>-21.1</v>
-      </c>
-      <c r="G40">
-        <v>0.80300000000000005</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>119</v>
       </c>
       <c r="B41">
         <v>-3</v>
       </c>
       <c r="C41">
-        <v>0.97399999999999998</v>
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="D41">
+        <v>0.1</v>
       </c>
       <c r="E41">
+        <v>1E-3</v>
+      </c>
+      <c r="G41">
+        <v>117</v>
+      </c>
+      <c r="H41">
+        <v>-21.1</v>
+      </c>
+      <c r="I41">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="J41">
+        <v>0.1</v>
+      </c>
+      <c r="K41">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>119</v>
-      </c>
-      <c r="F41">
-        <v>-19.8</v>
-      </c>
-      <c r="G41">
-        <v>0.76500000000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>121</v>
       </c>
       <c r="B42">
         <v>-3</v>
@@ -1189,39 +1672,63 @@
       <c r="C42">
         <v>0.97399999999999998</v>
       </c>
+      <c r="D42">
+        <v>0.1</v>
+      </c>
       <c r="E42">
+        <v>1E-3</v>
+      </c>
+      <c r="G42">
+        <v>119</v>
+      </c>
+      <c r="H42">
+        <v>-19.8</v>
+      </c>
+      <c r="I42">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="J42">
+        <v>0.1</v>
+      </c>
+      <c r="K42">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>121</v>
       </c>
-      <c r="F42">
+      <c r="B43">
+        <v>-3</v>
+      </c>
+      <c r="C43">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="D43">
+        <v>0.1</v>
+      </c>
+      <c r="E43">
+        <v>1E-3</v>
+      </c>
+      <c r="G43">
+        <v>121</v>
+      </c>
+      <c r="H43">
         <v>-18.7</v>
       </c>
-      <c r="G42">
+      <c r="I43">
         <v>0.73299999999999998</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="J43">
+        <v>0.1</v>
+      </c>
+      <c r="K43">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>123</v>
-      </c>
-      <c r="B43">
-        <v>-3.1</v>
-      </c>
-      <c r="C43">
-        <v>0.95699999999999996</v>
-      </c>
-      <c r="E43">
-        <v>123</v>
-      </c>
-      <c r="F43">
-        <v>-17.100000000000001</v>
-      </c>
-      <c r="G43">
-        <v>0.70599999999999996</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>125</v>
       </c>
       <c r="B44">
         <v>-3.1</v>
@@ -1229,154 +1736,282 @@
       <c r="C44">
         <v>0.95699999999999996</v>
       </c>
+      <c r="D44">
+        <v>0.1</v>
+      </c>
       <c r="E44">
+        <v>1E-3</v>
+      </c>
+      <c r="G44">
+        <v>123</v>
+      </c>
+      <c r="H44">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="I44">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="J44">
+        <v>0.1</v>
+      </c>
+      <c r="K44">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>125</v>
       </c>
-      <c r="F44">
+      <c r="B45">
+        <v>-3.1</v>
+      </c>
+      <c r="C45">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="D45">
+        <v>0.1</v>
+      </c>
+      <c r="E45">
+        <v>1E-3</v>
+      </c>
+      <c r="G45">
+        <v>125</v>
+      </c>
+      <c r="H45">
         <v>-16.8</v>
       </c>
-      <c r="G44">
+      <c r="I45">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="J45">
+        <v>0.1</v>
+      </c>
+      <c r="K45">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>127</v>
-      </c>
-      <c r="B45">
-        <v>-3</v>
-      </c>
-      <c r="C45">
-        <v>0.92300000000000004</v>
-      </c>
-      <c r="E45">
-        <v>127</v>
-      </c>
-      <c r="F45">
-        <v>-15.8</v>
-      </c>
-      <c r="G45">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>129</v>
       </c>
       <c r="B46">
         <v>-3</v>
       </c>
       <c r="C46">
-        <v>0.90600000000000003</v>
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="D46">
+        <v>0.1</v>
       </c>
       <c r="E46">
+        <v>1E-3</v>
+      </c>
+      <c r="G46">
+        <v>127</v>
+      </c>
+      <c r="H46">
+        <v>-15.8</v>
+      </c>
+      <c r="I46">
+        <v>0.65</v>
+      </c>
+      <c r="J46">
+        <v>0.1</v>
+      </c>
+      <c r="K46">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>129</v>
-      </c>
-      <c r="F46">
-        <v>-15.1</v>
-      </c>
-      <c r="G46">
-        <v>0.621</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>131</v>
       </c>
       <c r="B47">
         <v>-3</v>
       </c>
       <c r="C47">
-        <v>0.85899999999999999</v>
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="D47">
+        <v>0.1</v>
       </c>
       <c r="E47">
+        <v>1E-3</v>
+      </c>
+      <c r="G47">
+        <v>129</v>
+      </c>
+      <c r="H47">
+        <v>-15.1</v>
+      </c>
+      <c r="I47">
+        <v>0.621</v>
+      </c>
+      <c r="J47">
+        <v>0.1</v>
+      </c>
+      <c r="K47">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>131</v>
-      </c>
-      <c r="F47">
-        <v>-14.3</v>
-      </c>
-      <c r="G47">
-        <v>0.502</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>133</v>
       </c>
       <c r="B48">
         <v>-3</v>
       </c>
       <c r="C48">
-        <v>0.84399999999999997</v>
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="D48">
+        <v>0.1</v>
       </c>
       <c r="E48">
+        <v>1E-3</v>
+      </c>
+      <c r="G48">
+        <v>131</v>
+      </c>
+      <c r="H48">
+        <v>-14.3</v>
+      </c>
+      <c r="I48">
+        <v>0.502</v>
+      </c>
+      <c r="J48">
+        <v>0.1</v>
+      </c>
+      <c r="K48">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>133</v>
-      </c>
-      <c r="F48">
-        <v>-13.8</v>
-      </c>
-      <c r="G48">
-        <v>0.57599999999999996</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>135</v>
       </c>
       <c r="B49">
         <v>-3</v>
       </c>
       <c r="C49">
-        <v>0.82899999999999996</v>
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="D49">
+        <v>0.1</v>
       </c>
       <c r="E49">
+        <v>1E-3</v>
+      </c>
+      <c r="G49">
+        <v>133</v>
+      </c>
+      <c r="H49">
+        <v>-13.8</v>
+      </c>
+      <c r="I49">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="J49">
+        <v>0.1</v>
+      </c>
+      <c r="K49">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>135</v>
-      </c>
-      <c r="F49">
-        <v>-13.1</v>
-      </c>
-      <c r="G49">
-        <v>0.55300000000000005</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>137</v>
       </c>
       <c r="B50">
         <v>-3</v>
       </c>
       <c r="C50">
-        <v>0.80700000000000005</v>
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="D50">
+        <v>0.1</v>
       </c>
       <c r="E50">
+        <v>1E-3</v>
+      </c>
+      <c r="G50">
+        <v>135</v>
+      </c>
+      <c r="H50">
+        <v>-13.1</v>
+      </c>
+      <c r="I50">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="J50">
+        <v>0.1</v>
+      </c>
+      <c r="K50">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>137</v>
-      </c>
-      <c r="F50">
-        <v>-12.8</v>
-      </c>
-      <c r="G50">
-        <v>0.53400000000000003</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>139</v>
       </c>
       <c r="B51">
         <v>-3</v>
       </c>
       <c r="C51">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="D51">
+        <v>0.1</v>
+      </c>
+      <c r="E51">
+        <v>1E-3</v>
+      </c>
+      <c r="G51">
+        <v>137</v>
+      </c>
+      <c r="H51">
+        <v>-12.8</v>
+      </c>
+      <c r="I51">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="J51">
+        <v>0.1</v>
+      </c>
+      <c r="K51">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>139</v>
+      </c>
+      <c r="B52">
+        <v>-3</v>
+      </c>
+      <c r="C52">
         <v>0.78600000000000003</v>
       </c>
-      <c r="E51">
+      <c r="D52">
+        <v>0.1</v>
+      </c>
+      <c r="E52">
+        <v>1E-3</v>
+      </c>
+      <c r="G52">
         <v>139</v>
       </c>
-      <c r="F51">
+      <c r="H52">
         <v>-12.5</v>
       </c>
-      <c r="G51">
+      <c r="I52">
         <v>0.51600000000000001</v>
+      </c>
+      <c r="J52">
+        <v>0.1</v>
+      </c>
+      <c r="K52">
+        <v>1E-3</v>
       </c>
     </row>
   </sheetData>
